--- a/data/crimenes_spain_2023_norm.xlsx
+++ b/data/crimenes_spain_2023_norm.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Orden publico</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Tráfico de drogas</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Orden publico</t>
         </is>
       </c>
     </row>
@@ -481,10 +481,10 @@
         <v>0.2457842014711084</v>
       </c>
       <c r="E2" t="n">
+        <v>0.692392079753976</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.3836631437597789</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.692392079753976</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
         <v>1.405046783141509</v>
       </c>
       <c r="E3" t="n">
+        <v>0.5226877535811874</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.248406061107891</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5226877535811874</v>
       </c>
     </row>
     <row r="4">
@@ -525,10 +525,10 @@
         <v>2.738390933603718</v>
       </c>
       <c r="E4" t="n">
+        <v>0.8630209346346669</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.5872155989971102</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8630209346346669</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>1.98826989089796</v>
       </c>
       <c r="E5" t="n">
+        <v>0.8868640269366159</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.6381594770098608</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.8868640269366159</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         <v>0.6754155067825603</v>
       </c>
       <c r="E6" t="n">
+        <v>0.3345516061633243</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.2461794837805594</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3345516061633243</v>
       </c>
     </row>
     <row r="7">
@@ -591,10 +591,10 @@
         <v>1.165770819308508</v>
       </c>
       <c r="E7" t="n">
+        <v>0.4403359688809346</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.3403274606944173</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4403359688809346</v>
       </c>
     </row>
     <row r="8">
@@ -613,10 +613,10 @@
         <v>4.285563269815722</v>
       </c>
       <c r="E8" t="n">
+        <v>0.7791933217846767</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.6615470653226576</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7791933217846767</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +635,10 @@
         <v>5.083704741956313</v>
       </c>
       <c r="E9" t="n">
+        <v>0.5086854497062854</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.5627562457018966</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5086854497062854</v>
       </c>
     </row>
     <row r="10">
@@ -657,10 +657,10 @@
         <v>1.154316046678182</v>
       </c>
       <c r="E10" t="n">
+        <v>0.575753745910042</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.2303014983640168</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.575753745910042</v>
       </c>
     </row>
     <row r="11">
@@ -679,10 +679,10 @@
         <v>0.5288044399036858</v>
       </c>
       <c r="E11" t="n">
+        <v>0.3285775160566591</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.2233300304447605</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3285775160566591</v>
       </c>
     </row>
     <row r="12">
@@ -701,10 +701,10 @@
         <v>2.733635108671225</v>
       </c>
       <c r="E12" t="n">
+        <v>0.8114225175768083</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.6332466531830877</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8114225175768083</v>
       </c>
     </row>
     <row r="13">
@@ -723,10 +723,10 @@
         <v>2.222926290830301</v>
       </c>
       <c r="E13" t="n">
+        <v>0.696687243639535</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.2912799967294877</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.696687243639535</v>
       </c>
     </row>
     <row r="14">
@@ -745,10 +745,10 @@
         <v>0.8424839268277333</v>
       </c>
       <c r="E14" t="n">
+        <v>0.5257911736105613</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.2476699736698397</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.5257911736105613</v>
       </c>
     </row>
     <row r="15">
@@ -767,10 +767,10 @@
         <v>2.035301735735187</v>
       </c>
       <c r="E15" t="n">
+        <v>0.4016534734657674</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.1956773332269123</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.4016534734657674</v>
       </c>
     </row>
     <row r="16">
@@ -789,10 +789,10 @@
         <v>1.704260383132732</v>
       </c>
       <c r="E16" t="n">
+        <v>0.3695986373058938</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1401618020701095</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.3695986373058938</v>
       </c>
     </row>
     <row r="17">
@@ -811,10 +811,10 @@
         <v>1.411649174492113</v>
       </c>
       <c r="E17" t="n">
+        <v>0.4142883446879028</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.2506188751815708</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.4142883446879028</v>
       </c>
     </row>
     <row r="18">
@@ -833,10 +833,10 @@
         <v>3.862211351189174</v>
       </c>
       <c r="E18" t="n">
+        <v>0.6712467391138526</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.7030292551703797</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.6712467391138526</v>
       </c>
     </row>
     <row r="19">
@@ -855,10 +855,10 @@
         <v>1.798471353618325</v>
       </c>
       <c r="E19" t="n">
+        <v>0.5481158923218189</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.278575289416045</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5481158923218189</v>
       </c>
     </row>
     <row r="20">
@@ -877,10 +877,10 @@
         <v>2.64695694082564</v>
       </c>
       <c r="E20" t="n">
+        <v>0.4104101088904619</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.2334442821211802</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.4104101088904619</v>
       </c>
     </row>
     <row r="21">
@@ -899,10 +899,10 @@
         <v>0.3663745311852216</v>
       </c>
       <c r="E21" t="n">
+        <v>0.7189755837544575</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.3498463568460387</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.7189755837544575</v>
       </c>
     </row>
     <row r="22">
@@ -921,10 +921,10 @@
         <v>2.974317038614775</v>
       </c>
       <c r="E22" t="n">
+        <v>0.541995112535301</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.3347057537060105</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.541995112535301</v>
       </c>
     </row>
     <row r="23">
@@ -943,10 +943,10 @@
         <v>0.7847893554025612</v>
       </c>
       <c r="E23" t="n">
+        <v>0.4726572254129062</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.4459030428423644</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.4726572254129062</v>
       </c>
     </row>
     <row r="24">
@@ -965,10 +965,10 @@
         <v>0.9582423189145235</v>
       </c>
       <c r="E24" t="n">
+        <v>0.4352747971109233</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.2567005213731086</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.4352747971109233</v>
       </c>
     </row>
     <row r="25">
@@ -987,10 +987,10 @@
         <v>1.219819971397325</v>
       </c>
       <c r="E25" t="n">
+        <v>0.3852063067570499</v>
+      </c>
+      <c r="F25" t="n">
         <v>0.1328297609507069</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3852063067570499</v>
       </c>
     </row>
     <row r="26">
@@ -1009,10 +1009,10 @@
         <v>1.946662360964871</v>
       </c>
       <c r="E26" t="n">
+        <v>0.4684724840639761</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.3070086667409552</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.4684724840639761</v>
       </c>
     </row>
     <row r="27">
@@ -1031,10 +1031,10 @@
         <v>1.025653854332137</v>
       </c>
       <c r="E27" t="n">
+        <v>0.4659220252911231</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.2908103916246607</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.4659220252911231</v>
       </c>
     </row>
     <row r="28">
@@ -1053,10 +1053,10 @@
         <v>0.8097836589338462</v>
       </c>
       <c r="E28" t="n">
+        <v>0.2883320603779604</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.190176465355676</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.2883320603779604</v>
       </c>
     </row>
     <row r="29">
@@ -1075,10 +1075,10 @@
         <v>4.298758852248272</v>
       </c>
       <c r="E29" t="n">
+        <v>0.8451766939193937</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.5019810402546135</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.8451766939193937</v>
       </c>
     </row>
     <row r="30">
@@ -1097,10 +1097,10 @@
         <v>3.280745861029186</v>
       </c>
       <c r="E30" t="n">
+        <v>0.811487741286385</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.7365902535368422</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.811487741286385</v>
       </c>
     </row>
     <row r="31">
@@ -1119,10 +1119,10 @@
         <v>2.777766801932978</v>
       </c>
       <c r="E31" t="n">
+        <v>0.6750144551876013</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.3819593990329841</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.6750144551876013</v>
       </c>
     </row>
     <row r="32">
@@ -1141,10 +1141,10 @@
         <v>1.182095634862449</v>
       </c>
       <c r="E32" t="n">
+        <v>0.8147692419320461</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.2388377369670933</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.8147692419320461</v>
       </c>
     </row>
     <row r="33">
@@ -1163,10 +1163,10 @@
         <v>1.277754297677436</v>
       </c>
       <c r="E33" t="n">
+        <v>0.3931551685161341</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.1113939644129047</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.3931551685161341</v>
       </c>
     </row>
     <row r="34">
@@ -1185,10 +1185,10 @@
         <v>0.8351518889257871</v>
       </c>
       <c r="E34" t="n">
+        <v>0.5050445150781979</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.1877856318294669</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.5050445150781979</v>
       </c>
     </row>
     <row r="35">
@@ -1207,10 +1207,10 @@
         <v>0.4147734771214721</v>
       </c>
       <c r="E35" t="n">
+        <v>0.5530313028286294</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.3456445642678934</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.5530313028286294</v>
       </c>
     </row>
     <row r="36">
@@ -1229,10 +1229,10 @@
         <v>1.894484816209276</v>
       </c>
       <c r="E36" t="n">
+        <v>0.5245720351711372</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.3579849699478707</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.5245720351711372</v>
       </c>
     </row>
     <row r="37">
@@ -1251,10 +1251,10 @@
         <v>1.34282915464245</v>
       </c>
       <c r="E37" t="n">
+        <v>0.3812448704032194</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.2488681792909904</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.3812448704032194</v>
       </c>
     </row>
     <row r="38">
@@ -1273,10 +1273,10 @@
         <v>1.738264423928783</v>
       </c>
       <c r="E38" t="n">
+        <v>0.3360440889844747</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.2046813996541801</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.3360440889844747</v>
       </c>
     </row>
     <row r="39">
@@ -1295,10 +1295,10 @@
         <v>2.184976134737004</v>
       </c>
       <c r="E39" t="n">
+        <v>0.4854438651672484</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.3446938687578095</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.4854438651672484</v>
       </c>
     </row>
     <row r="40">
@@ -1317,10 +1317,10 @@
         <v>1.07269887272522</v>
       </c>
       <c r="E40" t="n">
+        <v>0.4807470227046041</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.1950361586773127</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.4807470227046041</v>
       </c>
     </row>
     <row r="41">
@@ -1339,10 +1339,10 @@
         <v>0.8655304139578168</v>
       </c>
       <c r="E41" t="n">
+        <v>0.5791895251296668</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.292848636301517</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.5791895251296668</v>
       </c>
     </row>
     <row r="42">
@@ -1361,10 +1361,10 @@
         <v>4.79759242488649</v>
       </c>
       <c r="E42" t="n">
+        <v>0.5359750124752805</v>
+      </c>
+      <c r="F42" t="n">
         <v>0.3172725648560568</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.5359750124752805</v>
       </c>
     </row>
     <row r="43">
@@ -1383,10 +1383,10 @@
         <v>0.4507194609395247</v>
       </c>
       <c r="E43" t="n">
+        <v>0.766223083597192</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.3267716091811554</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.766223083597192</v>
       </c>
     </row>
     <row r="44">
@@ -1405,10 +1405,10 @@
         <v>4.011873881959215</v>
       </c>
       <c r="E44" t="n">
+        <v>0.6445265709119078</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.5642647715153306</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.6445265709119078</v>
       </c>
     </row>
     <row r="45">
@@ -1427,10 +1427,10 @@
         <v>0.3270281318517968</v>
       </c>
       <c r="E45" t="n">
+        <v>0.2824333865992791</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.1932438960942436</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.2824333865992791</v>
       </c>
     </row>
     <row r="46">
@@ -1449,10 +1449,10 @@
         <v>2.079213084805111</v>
       </c>
       <c r="E46" t="n">
+        <v>0.6061434755703035</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.3749631732597691</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.6061434755703035</v>
       </c>
     </row>
     <row r="47">
@@ -1471,10 +1471,10 @@
         <v>4.295349498245094</v>
       </c>
       <c r="E47" t="n">
+        <v>0.7673853131642692</v>
+      </c>
+      <c r="F47" t="n">
         <v>0.4982018389440901</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.7673853131642692</v>
       </c>
     </row>
     <row r="48">
@@ -1493,10 +1493,10 @@
         <v>0.9068836512560627</v>
       </c>
       <c r="E48" t="n">
+        <v>0.3465797393335271</v>
+      </c>
+      <c r="F48" t="n">
         <v>0.113601136781545</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.3465797393335271</v>
       </c>
     </row>
     <row r="49">
@@ -1515,10 +1515,10 @@
         <v>0.3751080709742587</v>
       </c>
       <c r="E49" t="n">
+        <v>0.5648278574485375</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.1862545848948398</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.5648278574485375</v>
       </c>
     </row>
     <row r="50">
@@ -1537,10 +1537,10 @@
         <v>0.5986072010668247</v>
       </c>
       <c r="E50" t="n">
+        <v>0.3615350422284783</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.331901022373685</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.3615350422284783</v>
       </c>
     </row>
     <row r="51">
@@ -1559,10 +1559,10 @@
         <v>1.180420320594717</v>
       </c>
       <c r="E51" t="n">
+        <v>0.8506881995179089</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.4403319234442639</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.8506881995179089</v>
       </c>
     </row>
     <row r="52">
@@ -1581,10 +1581,10 @@
         <v>2.670115066393668</v>
       </c>
       <c r="E52" t="n">
+        <v>1.436833219584037</v>
+      </c>
+      <c r="F52" t="n">
         <v>1.18538740615683</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.436833219584037</v>
       </c>
     </row>
     <row r="53">
@@ -1603,10 +1603,10 @@
         <v>1.959170424641495</v>
       </c>
       <c r="E53" t="n">
+        <v>1.170865165022432</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.6955634643697616</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.170865165022432</v>
       </c>
     </row>
   </sheetData>
